--- a/data/datos_macro.xlsx
+++ b/data/datos_macro.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,17 +434,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Indicador</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Valor Actual</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Tendencia</t>
         </is>
@@ -441,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tasa de Interés Referencia</t>
+          <t>Tasa de Interés Referencia (BanRep)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.25</v>
+        <v>12.75</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -456,11 +468,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Inflación Anual</t>
+          <t>Inflación Anual (IPC)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
+        <v>7.74</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -475,22 +487,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Moderada</t>
+          <t>Lenta</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tipo de Cambio (USD/MXN)</t>
+          <t>TRM (USD/COP)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.5</v>
+        <v>3950</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
